--- a/Excel/Datas/__tables__.xlsx
+++ b/Excel/Datas/__tables__.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B93BA-6007-4E22-99E7-98758CA7DEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A1E64-1E04-49F3-9D6E-0FBFA7203C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3195" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="3150" windowWidth="21615" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -157,6 +158,14 @@
   </si>
   <si>
     <t>UISound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L10N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l10n/texts.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,7 +644,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B14" si="0">"StarForce.Tb"&amp;C5</f>
+        <f t="shared" ref="B5:B13" si="0">"StarForce.Tb"&amp;C5</f>
         <v>StarForce.TbArmor</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -779,7 +788,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"StarForce.Tb"&amp;C14</f>
         <v>StarForce.TbWeapon</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -798,4 +807,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E72D6AA-5711-4E56-9126-FF8DCA8A7F06}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.75" customWidth="1"/>
+    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="str">
+        <f>"Localization.Tb"&amp;C4</f>
+        <v>Localization.TbL10N</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>